--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.6393093937211</v>
+        <v>0.3341516666666666</v>
       </c>
       <c r="N2">
-        <v>10.6393093937211</v>
+        <v>1.002455</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02354483703663662</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03467746452042096</v>
       </c>
       <c r="Q2">
-        <v>116.8643479702056</v>
+        <v>0.2341099991833333</v>
       </c>
       <c r="R2">
-        <v>116.8643479702056</v>
+        <v>2.10698999265</v>
       </c>
       <c r="S2">
-        <v>0.731981969108615</v>
+        <v>0.0009499340806886752</v>
       </c>
       <c r="T2">
-        <v>0.731981969108615</v>
+        <v>0.001523115824795413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.02190891456284</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>4.02190891456284</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.268018030891385</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.268018030891385</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>10.6393093937211</v>
+        <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>10.6393093937211</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01082049501783563</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01593671391696275</v>
       </c>
       <c r="Q3">
-        <v>42.79033329539906</v>
+        <v>0.10758987526</v>
       </c>
       <c r="R3">
-        <v>42.79033329539906</v>
+        <v>0.96830887734</v>
       </c>
       <c r="S3">
-        <v>0.268018030891385</v>
+        <v>0.0004365609739141521</v>
       </c>
       <c r="T3">
-        <v>0.268018030891385</v>
+        <v>0.0006999779683393239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.7006100000000001</v>
+      </c>
+      <c r="H4">
+        <v>2.10183</v>
+      </c>
+      <c r="I4">
+        <v>0.04034574880304091</v>
+      </c>
+      <c r="J4">
+        <v>0.04392235262467</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.107897</v>
+      </c>
+      <c r="O4">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P4">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q4">
+        <v>0.02519790572333334</v>
+      </c>
+      <c r="R4">
+        <v>0.22678115151</v>
+      </c>
+      <c r="S4">
+        <v>0.0001022440284143089</v>
+      </c>
+      <c r="T4">
+        <v>0.0001639371624142237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7006100000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.10183</v>
+      </c>
+      <c r="I5">
+        <v>0.04034574880304091</v>
+      </c>
+      <c r="J5">
+        <v>0.04392235262467</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.6684585</v>
+      </c>
+      <c r="N5">
+        <v>27.336917</v>
+      </c>
+      <c r="O5">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P5">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q5">
+        <v>9.576258709685002</v>
+      </c>
+      <c r="R5">
+        <v>57.45755225811</v>
+      </c>
+      <c r="S5">
+        <v>0.03885700972002377</v>
+      </c>
+      <c r="T5">
+        <v>0.04153532166912104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H6">
+        <v>35.59684</v>
+      </c>
+      <c r="I6">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J6">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.002455</v>
+      </c>
+      <c r="O6">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P6">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q6">
+        <v>3.964914471355555</v>
+      </c>
+      <c r="R6">
+        <v>35.68423024219999</v>
+      </c>
+      <c r="S6">
+        <v>0.01608819527783972</v>
+      </c>
+      <c r="T6">
+        <v>0.02579566868714897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H7">
+        <v>35.59684</v>
+      </c>
+      <c r="I7">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J7">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.153566</v>
+      </c>
+      <c r="N7">
+        <v>0.460698</v>
+      </c>
+      <c r="O7">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P7">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q7">
+        <v>1.822154777146667</v>
+      </c>
+      <c r="R7">
+        <v>16.39939299432</v>
+      </c>
+      <c r="S7">
+        <v>0.007393647982313624</v>
+      </c>
+      <c r="T7">
+        <v>0.0118549091708178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H8">
+        <v>35.59684</v>
+      </c>
+      <c r="I8">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J8">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.107897</v>
+      </c>
+      <c r="O8">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P8">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q8">
+        <v>0.4267546939422223</v>
+      </c>
+      <c r="R8">
+        <v>3.84079224548</v>
+      </c>
+      <c r="S8">
+        <v>0.00173161688643687</v>
+      </c>
+      <c r="T8">
+        <v>0.002776459057351515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H9">
+        <v>35.59684</v>
+      </c>
+      <c r="I9">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J9">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.6684585</v>
+      </c>
+      <c r="N9">
+        <v>27.336917</v>
+      </c>
+      <c r="O9">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P9">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q9">
+        <v>162.1846434237133</v>
+      </c>
+      <c r="R9">
+        <v>973.10786054228</v>
+      </c>
+      <c r="S9">
+        <v>0.6580868851820227</v>
+      </c>
+      <c r="T9">
+        <v>0.7034470912510692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.371554</v>
+      </c>
+      <c r="I10">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J10">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.002455</v>
+      </c>
+      <c r="O10">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P10">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q10">
+        <v>0.1527690183411111</v>
+      </c>
+      <c r="R10">
+        <v>1.37492116507</v>
+      </c>
+      <c r="S10">
+        <v>0.0006198816688813438</v>
+      </c>
+      <c r="T10">
+        <v>0.0009939127341228582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.371554</v>
+      </c>
+      <c r="I11">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J11">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.153566</v>
+      </c>
+      <c r="N11">
+        <v>0.460698</v>
+      </c>
+      <c r="O11">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P11">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q11">
+        <v>0.07020802052133333</v>
+      </c>
+      <c r="R11">
+        <v>0.631872184692</v>
+      </c>
+      <c r="S11">
+        <v>0.0002848788674706569</v>
+      </c>
+      <c r="T11">
+        <v>0.0004567722329530329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.107897</v>
+      </c>
+      <c r="O12">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P12">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q12">
+        <v>0.01644295132644444</v>
+      </c>
+      <c r="R12">
+        <v>0.147986561938</v>
+      </c>
+      <c r="S12">
+        <v>6.671957586853311E-05</v>
+      </c>
+      <c r="T12">
+        <v>0.0001069775723335751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.6684585</v>
+      </c>
+      <c r="N13">
+        <v>27.336917</v>
+      </c>
+      <c r="O13">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P13">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q13">
+        <v>6.249009643169666</v>
+      </c>
+      <c r="R13">
+        <v>37.494057859018</v>
+      </c>
+      <c r="S13">
+        <v>0.02535623105081642</v>
+      </c>
+      <c r="T13">
+        <v>0.02710396967241387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.298806</v>
+      </c>
+      <c r="I14">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J14">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.002455</v>
+      </c>
+      <c r="O14">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P14">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q14">
+        <v>0.03328217430333334</v>
+      </c>
+      <c r="R14">
+        <v>0.29953956873</v>
+      </c>
+      <c r="S14">
+        <v>0.0001350470794090199</v>
+      </c>
+      <c r="T14">
+        <v>0.0002165332815421885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.298806</v>
+      </c>
+      <c r="I15">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J15">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.153566</v>
+      </c>
+      <c r="N15">
+        <v>0.460698</v>
+      </c>
+      <c r="O15">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P15">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q15">
+        <v>0.015295480732</v>
+      </c>
+      <c r="R15">
+        <v>0.137659326588</v>
+      </c>
+      <c r="S15">
+        <v>6.206355336606297E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.951214741801194E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.298806</v>
+      </c>
+      <c r="I16">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J16">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.107897</v>
+      </c>
+      <c r="O16">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P16">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q16">
+        <v>0.003582252331333334</v>
+      </c>
+      <c r="R16">
+        <v>0.032240270982</v>
+      </c>
+      <c r="S16">
+        <v>1.453549009880246E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.330607506427472E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.6684585</v>
+      </c>
+      <c r="N17">
+        <v>27.336917</v>
+      </c>
+      <c r="O17">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P17">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q17">
+        <v>1.361405803517</v>
+      </c>
+      <c r="R17">
+        <v>8.168434821102</v>
+      </c>
+      <c r="S17">
+        <v>0.005524094549226827</v>
+      </c>
+      <c r="T17">
+        <v>0.00590485592396311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.2421405</v>
+      </c>
+      <c r="H18">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J18">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.002455</v>
+      </c>
+      <c r="O18">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P18">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q18">
+        <v>1.417518318309166</v>
+      </c>
+      <c r="R18">
+        <v>8.505109909854998</v>
+      </c>
+      <c r="S18">
+        <v>0.005751778929817868</v>
+      </c>
+      <c r="T18">
+        <v>0.006148233992811524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.2421405</v>
+      </c>
+      <c r="H19">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J19">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.153566</v>
+      </c>
+      <c r="N19">
+        <v>0.460698</v>
+      </c>
+      <c r="O19">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P19">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q19">
+        <v>0.651448548023</v>
+      </c>
+      <c r="R19">
+        <v>3.908691288138</v>
+      </c>
+      <c r="S19">
+        <v>0.002643343640771139</v>
+      </c>
+      <c r="T19">
+        <v>0.002825542397434582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.2421405</v>
+      </c>
+      <c r="H20">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J20">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.107897</v>
+      </c>
+      <c r="O20">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P20">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q20">
+        <v>0.1525714111761667</v>
+      </c>
+      <c r="R20">
+        <v>0.915428467057</v>
+      </c>
+      <c r="S20">
+        <v>0.0006190798501584196</v>
+      </c>
+      <c r="T20">
+        <v>0.0006617514034269719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.2421405</v>
+      </c>
+      <c r="H21">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J21">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.6684585</v>
+      </c>
+      <c r="N21">
+        <v>27.336917</v>
+      </c>
+      <c r="O21">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P21">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q21">
+        <v>57.98352137541924</v>
+      </c>
+      <c r="R21">
+        <v>231.934085501677</v>
+      </c>
+      <c r="S21">
+        <v>0.2352762516124612</v>
+      </c>
+      <c r="T21">
+        <v>0.1676621517754585</v>
       </c>
     </row>
   </sheetData>
